--- a/file/register.xlsx
+++ b/file/register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\e-CounsellingKVSA\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD989F9-CC23-4A00-BB51-0BB81492F645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC5662-277F-413A-BD1B-00985A552A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EFC3FE0-CC3D-4EFD-8229-5C3A933CC9E7}"/>
+    <workbookView xWindow="4752" yWindow="1992" windowWidth="17280" windowHeight="9420" xr2:uid="{5EFC3FE0-CC3D-4EFD-8229-5C3A933CC9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,15 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Amien</t>
-  </si>
-  <si>
-    <t>orange2k</t>
-  </si>
-  <si>
-    <t>1DVM IPD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>FULL NAME</t>
+  </si>
+  <si>
+    <t>ID_User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Kohort</t>
   </si>
 </sst>
 </file>
@@ -59,15 +66,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,12 +88,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,26 +426,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EFB61D-0B49-4B41-8423-F0E6F2B6E5D0}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>3009</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
